--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H2">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N2">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q2">
-        <v>6.229405508707555</v>
+        <v>2.802369309935222</v>
       </c>
       <c r="R2">
-        <v>56.06464957836799</v>
+        <v>25.221323789417</v>
       </c>
       <c r="S2">
-        <v>0.02359084221068801</v>
+        <v>0.006752630188142216</v>
       </c>
       <c r="T2">
-        <v>0.02359084221068801</v>
+        <v>0.006752630188142218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H3">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.113427</v>
       </c>
       <c r="O3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q3">
-        <v>4.274115359580445</v>
+        <v>1.860951994926556</v>
       </c>
       <c r="R3">
-        <v>38.467038236224</v>
+        <v>16.748567954339</v>
       </c>
       <c r="S3">
-        <v>0.01618613219145851</v>
+        <v>0.004484177219281285</v>
       </c>
       <c r="T3">
-        <v>0.01618613219145851</v>
+        <v>0.004484177219281286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H4">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N4">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q4">
-        <v>7.351672467320889</v>
+        <v>12.44475409212256</v>
       </c>
       <c r="R4">
-        <v>66.165052205888</v>
+        <v>112.002786829103</v>
       </c>
       <c r="S4">
-        <v>0.02784088223487787</v>
+        <v>0.02998706197236211</v>
       </c>
       <c r="T4">
-        <v>0.02784088223487787</v>
+        <v>0.02998706197236212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H5">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I5">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J5">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N5">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q5">
-        <v>0.7291292187022221</v>
+        <v>0.2155625677981112</v>
       </c>
       <c r="R5">
-        <v>6.562162968319999</v>
+        <v>1.940063110183</v>
       </c>
       <c r="S5">
-        <v>0.002761222130356237</v>
+        <v>0.0005194227247587954</v>
       </c>
       <c r="T5">
-        <v>0.002761222130356237</v>
+        <v>0.0005194227247587955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H6">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I6">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J6">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N6">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q6">
-        <v>15.59293211667911</v>
+        <v>9.717568841803335</v>
       </c>
       <c r="R6">
-        <v>140.336389050112</v>
+        <v>87.45811957623</v>
       </c>
       <c r="S6">
-        <v>0.05905064305933522</v>
+        <v>0.02341559639690323</v>
       </c>
       <c r="T6">
-        <v>0.05905064305933522</v>
+        <v>0.02341559639690323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N7">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q7">
-        <v>3.028648961919333</v>
+        <v>3.129239286835666</v>
       </c>
       <c r="R7">
-        <v>27.257840657274</v>
+        <v>28.163153581521</v>
       </c>
       <c r="S7">
-        <v>0.01146953423923542</v>
+        <v>0.007540260878283589</v>
       </c>
       <c r="T7">
-        <v>0.01146953423923542</v>
+        <v>0.007540260878283593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.682841</v>
       </c>
       <c r="I8">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J8">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.113427</v>
       </c>
       <c r="O8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q8">
         <v>2.078014511789667</v>
@@ -948,10 +948,10 @@
         <v>18.702130606107</v>
       </c>
       <c r="S8">
-        <v>0.007869468826620147</v>
+        <v>0.005007214243305021</v>
       </c>
       <c r="T8">
-        <v>0.007869468826620145</v>
+        <v>0.005007214243305023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.682841</v>
       </c>
       <c r="I9">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J9">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N9">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q9">
-        <v>3.574279304084333</v>
+        <v>13.89631740613767</v>
       </c>
       <c r="R9">
-        <v>32.168513736759</v>
+        <v>125.066856655239</v>
       </c>
       <c r="S9">
-        <v>0.01353584366304572</v>
+        <v>0.03348477022211623</v>
       </c>
       <c r="T9">
-        <v>0.01353584366304572</v>
+        <v>0.03348477022211624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.682841</v>
       </c>
       <c r="I10">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J10">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N10">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q10">
-        <v>0.3544923264733333</v>
+        <v>0.2407059103643333</v>
       </c>
       <c r="R10">
-        <v>3.19043093826</v>
+        <v>2.166353193279</v>
       </c>
       <c r="S10">
-        <v>0.001342467194829828</v>
+        <v>0.0005800084917530098</v>
       </c>
       <c r="T10">
-        <v>0.001342467194829827</v>
+        <v>0.0005800084917530101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.682841</v>
       </c>
       <c r="I11">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J11">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N11">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O11">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P11">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q11">
-        <v>7.581063329790666</v>
+        <v>10.85103169111</v>
       </c>
       <c r="R11">
-        <v>68.229569968116</v>
+        <v>97.65928521999</v>
       </c>
       <c r="S11">
-        <v>0.02870958850765685</v>
+        <v>0.02614680510170552</v>
       </c>
       <c r="T11">
-        <v>0.02870958850765684</v>
+        <v>0.02614680510170553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H12">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I12">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J12">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N12">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O12">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P12">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q12">
-        <v>20.71972133006911</v>
+        <v>15.87453905593811</v>
       </c>
       <c r="R12">
-        <v>186.477491970622</v>
+        <v>142.870851503443</v>
       </c>
       <c r="S12">
-        <v>0.07846586257129051</v>
+        <v>0.0382515221216322</v>
       </c>
       <c r="T12">
-        <v>0.0784658625712905</v>
+        <v>0.03825152212163221</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H13">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I13">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J13">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.113427</v>
       </c>
       <c r="O13">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P13">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q13">
-        <v>14.21620073685789</v>
+        <v>10.54170662658678</v>
       </c>
       <c r="R13">
-        <v>127.945806631721</v>
+        <v>94.875359639281</v>
       </c>
       <c r="S13">
-        <v>0.05383694285913688</v>
+        <v>0.02540145088973807</v>
       </c>
       <c r="T13">
-        <v>0.05383694285913687</v>
+        <v>0.02540145088973808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H14">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I14">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J14">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N14">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O14">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P14">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q14">
-        <v>24.45251069623077</v>
+        <v>70.49561033107079</v>
       </c>
       <c r="R14">
-        <v>220.072596266077</v>
+        <v>634.4604929796371</v>
       </c>
       <c r="S14">
-        <v>0.09260198596537089</v>
+        <v>0.1698672565266219</v>
       </c>
       <c r="T14">
-        <v>0.09260198596537088</v>
+        <v>0.169867256526622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H15">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I15">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J15">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N15">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O15">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P15">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q15">
-        <v>2.425167891864444</v>
+        <v>1.221094018328556</v>
       </c>
       <c r="R15">
-        <v>21.82651102678</v>
+        <v>10.989846164957</v>
       </c>
       <c r="S15">
-        <v>0.009184143333008191</v>
+        <v>0.002942366054856592</v>
       </c>
       <c r="T15">
-        <v>0.009184143333008191</v>
+        <v>0.002942366054856592</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H16">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I16">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J16">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N16">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O16">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P16">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q16">
-        <v>51.86389098039422</v>
+        <v>55.04696528079667</v>
       </c>
       <c r="R16">
-        <v>466.775018823548</v>
+        <v>495.42268752717</v>
       </c>
       <c r="S16">
-        <v>0.196409250744804</v>
+        <v>0.132641974847104</v>
       </c>
       <c r="T16">
-        <v>0.1964092507448039</v>
+        <v>0.132641974847104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H17">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I17">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J17">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N17">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O17">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P17">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q17">
-        <v>0.9868767338206665</v>
+        <v>0.6439255239433332</v>
       </c>
       <c r="R17">
-        <v>8.881890604385999</v>
+        <v>5.795329715489999</v>
       </c>
       <c r="S17">
-        <v>0.003737315427037078</v>
+        <v>0.001551612386161749</v>
       </c>
       <c r="T17">
-        <v>0.003737315427037077</v>
+        <v>0.00155161238616175</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H18">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I18">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J18">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.113427</v>
       </c>
       <c r="O18">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P18">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q18">
-        <v>0.6771151757803333</v>
+        <v>0.4276076262033333</v>
       </c>
       <c r="R18">
-        <v>6.094036582023</v>
+        <v>3.84846863583</v>
       </c>
       <c r="S18">
-        <v>0.002564244252195146</v>
+        <v>0.001030369607297478</v>
       </c>
       <c r="T18">
-        <v>0.002564244252195145</v>
+        <v>0.001030369607297479</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H19">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I19">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J19">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N19">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O19">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P19">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q19">
-        <v>1.164668844005667</v>
+        <v>2.859542734323334</v>
       </c>
       <c r="R19">
-        <v>10.482019596051</v>
+        <v>25.73588460891</v>
       </c>
       <c r="S19">
-        <v>0.004410616532867609</v>
+        <v>0.006890396110040478</v>
       </c>
       <c r="T19">
-        <v>0.004410616532867608</v>
+        <v>0.006890396110040481</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H20">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I20">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J20">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N20">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O20">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P20">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q20">
-        <v>0.1155103261266667</v>
+        <v>0.04953174405666667</v>
       </c>
       <c r="R20">
-        <v>1.03959293514</v>
+        <v>0.44578569651</v>
       </c>
       <c r="S20">
-        <v>0.0004374391542740766</v>
+        <v>0.0001193524169004379</v>
       </c>
       <c r="T20">
-        <v>0.0004374391542740765</v>
+        <v>0.0001193524169004379</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H21">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I21">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J21">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N21">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O21">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P21">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q21">
-        <v>2.470268133369333</v>
+        <v>2.2328929259</v>
       </c>
       <c r="R21">
-        <v>22.232413200324</v>
+        <v>20.0960363331</v>
       </c>
       <c r="S21">
-        <v>0.009354938552474729</v>
+        <v>0.005380411541357505</v>
       </c>
       <c r="T21">
-        <v>0.009354938552474728</v>
+        <v>0.005380411541357506</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H22">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I22">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J22">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N22">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O22">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P22">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q22">
-        <v>17.16498431232488</v>
+        <v>20.55816981805378</v>
       </c>
       <c r="R22">
-        <v>154.484858810924</v>
+        <v>185.023528362484</v>
       </c>
       <c r="S22">
-        <v>0.06500402580871728</v>
+        <v>0.04953726749510863</v>
       </c>
       <c r="T22">
-        <v>0.06500402580871727</v>
+        <v>0.04953726749510864</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H23">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I23">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J23">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.113427</v>
       </c>
       <c r="O23">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P23">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q23">
-        <v>11.77722705540911</v>
+        <v>13.65193623813644</v>
       </c>
       <c r="R23">
-        <v>105.995043498682</v>
+        <v>122.867426143228</v>
       </c>
       <c r="S23">
-        <v>0.04460051681580863</v>
+        <v>0.03289590577566086</v>
       </c>
       <c r="T23">
-        <v>0.04460051681580861</v>
+        <v>0.03289590577566087</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H24">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I24">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J24">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N24">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O24">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P24">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q24">
-        <v>20.25736523244822</v>
+        <v>91.29466521872845</v>
       </c>
       <c r="R24">
-        <v>182.316287092034</v>
+        <v>821.6519869685561</v>
       </c>
       <c r="S24">
-        <v>0.07671491382844864</v>
+        <v>0.2199849642182147</v>
       </c>
       <c r="T24">
-        <v>0.07671491382844861</v>
+        <v>0.2199849642182148</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H25">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I25">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J25">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N25">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O25">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P25">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q25">
-        <v>2.009098875195555</v>
+        <v>1.581366117412889</v>
       </c>
       <c r="R25">
-        <v>18.08188987675999</v>
+        <v>14.232295056716</v>
       </c>
       <c r="S25">
-        <v>0.007608484386537017</v>
+        <v>0.003810482988480328</v>
       </c>
       <c r="T25">
-        <v>0.007608484386537015</v>
+        <v>0.003810482988480329</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H26">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I26">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J26">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N26">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O26">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P26">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q26">
-        <v>42.96596758580177</v>
+        <v>71.28804535510668</v>
       </c>
       <c r="R26">
-        <v>386.693708272216</v>
+        <v>641.5924081959599</v>
       </c>
       <c r="S26">
-        <v>0.1627126955099256</v>
+        <v>0.1717767195822138</v>
       </c>
       <c r="T26">
-        <v>0.1627126955099256</v>
+        <v>0.1717767195822139</v>
       </c>
     </row>
   </sheetData>
